--- a/mf-intelligence/data/separated_files/nippon/Nippon India Small Cap Fund/Nippon India Small Cap Fund_Mar_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Small Cap Fund/Nippon India Small Cap Fund_Mar_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -7803,34 +7803,6 @@
         <v>0.0001</v>
       </c>
       <c r="H230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>118701</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>INF204K01ZH0</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Nippon India Liquid Fund-Direct Growth Plan</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="n">
-        <v>2367229.697</v>
-      </c>
-      <c r="F231" t="n">
-        <v>150245.58</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.0271</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
